--- a/inputs/demand.xlsx
+++ b/inputs/demand.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimenofonseca/Documents/CoolingTower/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{133E4218-E102-C44D-9CC0-5674B4F0FEBC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{090D23B4-E0D3-4346-A207-FAD67846C774}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3760" yWindow="460" windowWidth="12900" windowHeight="15540" xr2:uid="{958DDDD0-80E7-5C42-8181-DC3B9A1E1328}"/>
+    <workbookView xWindow="5800" yWindow="460" windowWidth="12900" windowHeight="15540" xr2:uid="{958DDDD0-80E7-5C42-8181-DC3B9A1E1328}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -409,12 +409,13 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="C13" sqref="C13:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="10.83203125" style="2"/>
+    <col min="1" max="1" width="12.1640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">

--- a/inputs/demand.xlsx
+++ b/inputs/demand.xlsx
@@ -8,18 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimenofonseca/Documents/CoolingTower/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1926DE41-BD95-304C-AD0A-233F391DD85A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C885658B-D6A6-FE47-BAD4-AD4E80B35322}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2420" yWindow="460" windowWidth="23140" windowHeight="15540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2420" yWindow="460" windowWidth="23140" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DEMAND_KWH" sheetId="4" r:id="rId1"/>
     <sheet name="PROPERTIES" sheetId="6" r:id="rId2"/>
     <sheet name="GROUPS" sheetId="5" r:id="rId3"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">DEMAND_KWH!$A$2:$A$25</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -38,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
   <si>
     <t>height_ag</t>
   </si>
@@ -92,6 +89,9 @@
   </si>
   <si>
     <t>G18</t>
+  </si>
+  <si>
+    <t>time</t>
   </si>
 </sst>
 </file>
@@ -426,47 +426,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50774DDB-113A-4858-821E-9238A7FA60AA}">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="23" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="24" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" s="3">
@@ -485,15 +488,18 @@
         <v>0</v>
       </c>
       <c r="G2" s="3">
+        <v>0</v>
+      </c>
+      <c r="H2" s="3">
         <v>625.94466027397254</v>
       </c>
-      <c r="H2" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
-        <v>0</v>
+      <c r="I2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
       </c>
       <c r="B3" s="3">
         <v>0</v>
@@ -511,15 +517,18 @@
         <v>0</v>
       </c>
       <c r="G3" s="3">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3">
         <v>580.75876438356113</v>
       </c>
-      <c r="H3" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
-        <v>0</v>
+      <c r="I3" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
       </c>
       <c r="B4" s="3">
         <v>0</v>
@@ -537,15 +546,18 @@
         <v>0</v>
       </c>
       <c r="G4" s="3">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3">
         <v>553.58952054794509</v>
       </c>
-      <c r="H4" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
-        <v>0</v>
+      <c r="I4" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3</v>
       </c>
       <c r="B5" s="3">
         <v>0</v>
@@ -563,555 +575,618 @@
         <v>0</v>
       </c>
       <c r="G5" s="3">
+        <v>0</v>
+      </c>
+      <c r="H5" s="3">
         <v>526.19614520547918</v>
       </c>
-      <c r="H5" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
-        <v>0</v>
+      <c r="I5" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4</v>
       </c>
       <c r="B6" s="3">
+        <v>0</v>
+      </c>
+      <c r="C6" s="3">
         <v>157.14946575342441</v>
       </c>
-      <c r="C6" s="3">
+      <c r="D6" s="3">
         <v>388.95956438356166</v>
       </c>
-      <c r="D6" s="3">
+      <c r="E6" s="3">
         <v>177.34503013698628</v>
       </c>
-      <c r="E6" s="3">
+      <c r="F6" s="3">
         <v>50.255698630136976</v>
       </c>
-      <c r="F6" s="3">
+      <c r="G6" s="3">
         <v>578.50325479452022</v>
       </c>
-      <c r="G6" s="3">
+      <c r="H6" s="3">
         <v>498.0454054794518</v>
       </c>
-      <c r="H6" s="3">
+      <c r="I6" s="3">
         <v>6315.9713616438312</v>
       </c>
-      <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
-        <v>0</v>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>5</v>
       </c>
       <c r="B7" s="3">
+        <v>0</v>
+      </c>
+      <c r="C7" s="3">
         <v>315.67419999999981</v>
       </c>
-      <c r="C7" s="3">
+      <c r="D7" s="3">
         <v>761.32013698630078</v>
       </c>
-      <c r="D7" s="3">
+      <c r="E7" s="3">
         <v>379.72013150684938</v>
       </c>
-      <c r="E7" s="3">
+      <c r="F7" s="3">
         <v>68.652849315068508</v>
       </c>
-      <c r="F7" s="3">
+      <c r="G7" s="3">
         <v>1157.577197260274</v>
       </c>
-      <c r="G7" s="3">
+      <c r="H7" s="3">
         <v>465.95082465753399</v>
       </c>
-      <c r="H7" s="3">
+      <c r="I7" s="3">
         <v>12312.59045205479</v>
       </c>
-      <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
-        <v>0</v>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>6</v>
       </c>
       <c r="B8" s="3">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3">
         <v>263.55981917808208</v>
       </c>
-      <c r="C8" s="3">
+      <c r="D8" s="3">
         <v>636.93015616438311</v>
       </c>
-      <c r="D8" s="3">
+      <c r="E8" s="3">
         <v>319.58926849315071</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>66.448904109589023</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>967.43976986301334</v>
       </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
       <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
         <v>10246.098928767133</v>
       </c>
-      <c r="I8" s="1"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
-        <v>0</v>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>7</v>
       </c>
       <c r="B9" s="3">
+        <v>0</v>
+      </c>
+      <c r="C9" s="3">
         <v>263.29020273972577</v>
       </c>
-      <c r="C9" s="3">
+      <c r="D9" s="3">
         <v>644.32968493150679</v>
       </c>
-      <c r="D9" s="3">
+      <c r="E9" s="3">
         <v>323.30263013698595</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>67.897306849315072</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>964.72714246575299</v>
       </c>
-      <c r="G9" s="3">
-        <v>0</v>
-      </c>
       <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3">
         <v>10054.175520547942</v>
       </c>
-      <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
-        <v>0</v>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>8</v>
       </c>
       <c r="B10" s="3">
+        <v>0</v>
+      </c>
+      <c r="C10" s="3">
         <v>277.33070136986282</v>
       </c>
-      <c r="C10" s="3">
+      <c r="D10" s="3">
         <v>685.53181095890375</v>
       </c>
-      <c r="D10" s="3">
+      <c r="E10" s="3">
         <v>339.4437424657533</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>69.897315068493143</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1016.5840493150693</v>
       </c>
-      <c r="G10" s="3">
-        <v>0</v>
-      </c>
       <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
         <v>10503.098293150682</v>
       </c>
-      <c r="I10" s="1"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3">
         <v>1.1559452054794406</v>
       </c>
-      <c r="B11" s="3">
+      <c r="C11" s="3">
         <v>276.86332054794519</v>
       </c>
-      <c r="C11" s="3">
+      <c r="D11" s="3">
         <v>687.04792328767076</v>
       </c>
-      <c r="D11" s="3">
+      <c r="E11" s="3">
         <v>336.95594520547945</v>
       </c>
-      <c r="E11" s="3">
+      <c r="F11" s="3">
         <v>69.212717808219196</v>
       </c>
-      <c r="F11" s="3">
+      <c r="G11" s="3">
         <v>1012.7554849315062</v>
       </c>
-      <c r="G11" s="3">
-        <v>0</v>
-      </c>
       <c r="H11" s="3">
+        <v>0</v>
+      </c>
+      <c r="I11" s="3">
         <v>10201.551342465747</v>
       </c>
-      <c r="I11" s="1"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3">
         <v>9.935775342465746</v>
       </c>
-      <c r="B12" s="3">
+      <c r="C12" s="3">
         <v>291.01691506849323</v>
       </c>
-      <c r="C12" s="3">
+      <c r="D12" s="3">
         <v>718.28144109589016</v>
       </c>
-      <c r="D12" s="3">
+      <c r="E12" s="3">
         <v>350.09721643835633</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>71.025136986301362</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1066.5851452054785</v>
       </c>
-      <c r="G12" s="3">
-        <v>0</v>
-      </c>
       <c r="H12" s="3">
+        <v>0</v>
+      </c>
+      <c r="I12" s="3">
         <v>10469.37639999999</v>
       </c>
-      <c r="I12" s="1"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3">
         <v>14.228964383561639</v>
       </c>
-      <c r="B13" s="3">
+      <c r="C13" s="3">
         <v>284.43901095890413</v>
       </c>
-      <c r="C13" s="3">
+      <c r="D13" s="3">
         <v>701.89484109588977</v>
       </c>
-      <c r="D13" s="3">
+      <c r="E13" s="3">
         <v>339.76541369862986</v>
       </c>
-      <c r="E13" s="3">
+      <c r="F13" s="3">
         <v>69.352284931506773</v>
       </c>
-      <c r="F13" s="3">
+      <c r="G13" s="3">
         <v>1057.6368136986296</v>
       </c>
-      <c r="G13" s="3">
-        <v>0</v>
-      </c>
       <c r="H13" s="3">
+        <v>0</v>
+      </c>
+      <c r="I13" s="3">
         <v>10237.258942465745</v>
       </c>
-      <c r="I13" s="1"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3">
         <v>56.563413698630079</v>
       </c>
-      <c r="B14" s="3">
+      <c r="C14" s="3">
         <v>258.12101917808218</v>
       </c>
-      <c r="C14" s="3">
+      <c r="D14" s="3">
         <v>649.48763013698658</v>
       </c>
-      <c r="D14" s="3">
+      <c r="E14" s="3">
         <v>298.39048493150688</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>62.286706849315067</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>983.41516712328792</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>9558.0909589041094</v>
       </c>
-      <c r="I14" s="1"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3">
         <v>62.145643835616411</v>
       </c>
-      <c r="B15" s="3">
+      <c r="C15" s="3">
         <v>289.69598904109574</v>
       </c>
-      <c r="C15" s="3">
+      <c r="D15" s="3">
         <v>719.38740821917736</v>
       </c>
-      <c r="D15" s="3">
+      <c r="E15" s="3">
         <v>324.65112876712294</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>66.108087671232823</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>1083.5341808219175</v>
       </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
       <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
         <v>10482.824657534236</v>
       </c>
-      <c r="I15" s="1"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" s="3">
         <v>66.8059753424657</v>
       </c>
-      <c r="B16" s="3">
+      <c r="C16" s="3">
         <v>293.07682191780805</v>
       </c>
-      <c r="C16" s="3">
+      <c r="D16" s="3">
         <v>726.0749150684926</v>
       </c>
-      <c r="D16" s="3">
+      <c r="E16" s="3">
         <v>323.44616986301378</v>
       </c>
-      <c r="E16" s="3">
+      <c r="F16" s="3">
         <v>67.751720547945169</v>
       </c>
-      <c r="F16" s="3">
+      <c r="G16" s="3">
         <v>1102.0169835616439</v>
       </c>
-      <c r="G16" s="3">
-        <v>0</v>
-      </c>
       <c r="H16" s="3">
+        <v>0</v>
+      </c>
+      <c r="I16" s="3">
         <v>10502.756183561636</v>
       </c>
-      <c r="I16" s="1"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" s="3">
         <v>71.650767123287636</v>
       </c>
-      <c r="B17" s="3">
+      <c r="C17" s="3">
         <v>295.25869315068462</v>
       </c>
-      <c r="C17" s="3">
+      <c r="D17" s="3">
         <v>725.1518493150686</v>
       </c>
-      <c r="D17" s="3">
+      <c r="E17" s="3">
         <v>326.24597260273981</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>69.641616438356181</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1108.160479452054</v>
       </c>
-      <c r="G17" s="3">
-        <v>0</v>
-      </c>
       <c r="H17" s="3">
+        <v>0</v>
+      </c>
+      <c r="I17" s="3">
         <v>10601.293257534233</v>
       </c>
-      <c r="I17" s="1"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" s="3">
         <v>76.239923287671246</v>
       </c>
-      <c r="B18" s="3">
+      <c r="C18" s="3">
         <v>299.37971780821897</v>
       </c>
-      <c r="C18" s="3">
+      <c r="D18" s="3">
         <v>734.76427671232852</v>
       </c>
-      <c r="D18" s="3">
+      <c r="E18" s="3">
         <v>349.8123835616438</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>74.859564383561661</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1119.1743863013701</v>
       </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
       <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
         <v>10964.105827397239</v>
       </c>
-      <c r="I18" s="1"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" s="3">
         <v>83.560608219178107</v>
       </c>
-      <c r="B19" s="3">
+      <c r="C19" s="3">
         <v>288.25351232876721</v>
       </c>
-      <c r="C19" s="3">
+      <c r="D19" s="3">
         <v>700.18893424657506</v>
       </c>
-      <c r="D19" s="3">
+      <c r="E19" s="3">
         <v>352.32564109589021</v>
       </c>
-      <c r="E19" s="3">
+      <c r="F19" s="3">
         <v>75.357230136986317</v>
       </c>
-      <c r="F19" s="3">
+      <c r="G19" s="3">
         <v>1063.5017917808213</v>
       </c>
-      <c r="G19" s="3">
+      <c r="H19" s="3">
         <v>72.572493150685119</v>
       </c>
-      <c r="H19" s="3">
+      <c r="I19" s="3">
         <v>10807.605819178088</v>
       </c>
-      <c r="I19" s="1"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
+      <c r="J19" s="1"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" s="3">
         <v>90.243517808219224</v>
       </c>
-      <c r="B20" s="3">
+      <c r="C20" s="3">
         <v>256.55958082191751</v>
       </c>
-      <c r="C20" s="3">
+      <c r="D20" s="3">
         <v>615.14201369862997</v>
       </c>
-      <c r="D20" s="3">
+      <c r="E20" s="3">
         <v>314.45572328767116</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>66.692441095890402</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>937.69030958904102</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1088.7735863013688</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>10220.039805479453</v>
       </c>
-      <c r="I20" s="1"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" s="3">
         <v>96.551556164383584</v>
       </c>
-      <c r="B21" s="3">
+      <c r="C21" s="3">
         <v>200.46867671232866</v>
       </c>
-      <c r="C21" s="3">
+      <c r="D21" s="3">
         <v>481.44742191780796</v>
       </c>
-      <c r="D21" s="3">
+      <c r="E21" s="3">
         <v>244.6200383561644</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>53.326153424657484</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>733.08458356164419</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>804.85827671232801</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>8040.5471589041044</v>
       </c>
-      <c r="I21" s="1"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="3">
+      <c r="J21" s="1"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" s="3">
         <v>100.39201095890411</v>
       </c>
-      <c r="B22" s="3">
+      <c r="C22" s="3">
         <v>194.17317808219158</v>
       </c>
-      <c r="C22" s="3">
+      <c r="D22" s="3">
         <v>466.74693150684897</v>
       </c>
-      <c r="D22" s="3">
+      <c r="E22" s="3">
         <v>236.34243561643817</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>51.459353424657493</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>710.26207945205385</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>774.35836712328751</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>7769.479378082191</v>
       </c>
-      <c r="I22" s="1"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
+      <c r="J22" s="1"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" s="3">
         <v>104.76780273972599</v>
       </c>
-      <c r="B23" s="3">
+      <c r="C23" s="3">
         <v>191.18676164383535</v>
       </c>
-      <c r="C23" s="3">
+      <c r="D23" s="3">
         <v>460.22040821917813</v>
       </c>
-      <c r="D23" s="3">
+      <c r="E23" s="3">
         <v>232.31911506849303</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>50.858312328767106</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>699.65384657534184</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>739.58766027397292</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>7620.771358904105</v>
       </c>
-      <c r="I23" s="1"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="3">
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" s="3">
         <v>108.76358904109583</v>
       </c>
-      <c r="B24" s="3">
+      <c r="C24" s="3">
         <v>72.025386301369849</v>
       </c>
-      <c r="C24" s="3">
+      <c r="D24" s="3">
         <v>176.66191506849299</v>
       </c>
-      <c r="D24" s="3">
+      <c r="E24" s="3">
         <v>80.929317808219167</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>21.615657534246566</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>264.52090958904097</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>712.93004383561595</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>2868.4409506849302</v>
       </c>
-      <c r="I24" s="1"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="3">
+      <c r="J24" s="1"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" s="3">
         <v>147.47814246575331</v>
       </c>
-      <c r="B25" s="3">
+      <c r="C25" s="3">
         <v>53.293556164383546</v>
       </c>
-      <c r="C25" s="3">
+      <c r="D25" s="3">
         <v>130.52189863013689</v>
       </c>
-      <c r="D25" s="3">
+      <c r="E25" s="3">
         <v>59.731860273972615</v>
       </c>
-      <c r="E25" s="3">
+      <c r="F25" s="3">
         <v>15.025961643835618</v>
       </c>
-      <c r="F25" s="3">
+      <c r="G25" s="3">
         <v>195.68742739726022</v>
       </c>
-      <c r="G25" s="3">
+      <c r="H25" s="3">
         <v>670.13425205479382</v>
       </c>
-      <c r="H25" s="3">
+      <c r="I25" s="3">
         <v>2121.6198301369855</v>
       </c>
-      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A25">
-    <sortCondition ref="A2:A25"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:B25">
+    <sortCondition ref="B2:B25"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1123,7 +1198,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1236,8 +1311,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D608F572-1BDC-0344-A672-F7D6E381D9BC}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
